--- a/likephased-seq/resource/ctDNABinomialCalculator_irf.xlsx
+++ b/likephased-seq/resource/ctDNABinomialCalculator_irf.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irffanalahi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/irffanalahi/Research/Research_code/likephased-seq/resource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1EEA504-31E7-FB48-8DBB-3DE280DB919C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B971E6F8-5DAB-E84B-8E31-2A57AC40139E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19580" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16760" windowHeight="21000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -636,7 +636,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -672,7 +672,7 @@
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13">
-        <v>1E-4</v>
+        <v>0.01</v>
       </c>
       <c r="B2" s="14">
         <v>30</v>
@@ -685,15 +685,15 @@
       </c>
       <c r="E2" s="4">
         <f>A2*B2</f>
-        <v>3.0000000000000001E-3</v>
+        <v>0.3</v>
       </c>
       <c r="F2" s="5">
         <f>1-(BINOMDIST(D2-1,B2*C2,A2,TRUE))</f>
-        <v>4.6868500593351681E-2</v>
+        <v>0.99196671070951326</v>
       </c>
       <c r="G2" s="9">
         <f>(1/F2)*C2</f>
-        <v>341.3806671312546</v>
+        <v>16.129573530301087</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
